--- a/study1/presentation_for_paper/study1_mbti_label_count.xlsx
+++ b/study1/presentation_for_paper/study1_mbti_label_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FC447555-8312-4971-B2B0-8AD7C57B02DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A8F52E-456A-477F-BA35-3585234FA24D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{FC447555-8312-4971-B2B0-8AD7C57B02DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A9DF79A-0DCF-4D65-9C1D-D5A1A9650A4F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{23A24214-89CF-43AD-B124-6BF0C7463188}"/>
   </bookViews>
@@ -88,15 +88,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>type</t>
+    <t>Total</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>count</t>
+    <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Total</t>
+    <t>Count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,25 +123,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,41 +159,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -205,22 +236,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA46046-4E11-E71E-DF2E-C2CA54E3797D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C053FE-C923-3308-CAD3-2A3FEDD76F1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -243,8 +274,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="323850" y="254000"/>
-          <a:ext cx="7143750" cy="374650"/>
+          <a:off x="584200" y="323850"/>
+          <a:ext cx="8083550" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -264,6 +295,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,129 +618,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B875B7-30F8-4300-85D5-4FD2EB3875EB}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="B2:S3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R2" sqref="A1:R2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="B2:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="18" width="5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="2.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="19" width="5.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="3" t="s">
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="C3" s="4">
         <v>1832</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="3">
         <v>1470</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E3" s="3">
         <v>1304</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F3" s="3">
         <v>1091</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G3" s="3">
         <v>685</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H3" s="3">
         <v>675</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I3" s="3">
         <v>337</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J3" s="3">
         <v>271</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K3" s="3">
         <v>231</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L3" s="3">
         <v>205</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M3" s="3">
         <v>190</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N3" s="3">
         <v>166</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O3" s="3">
         <v>89</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P3" s="3">
         <v>48</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q3" s="3">
         <v>42</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R3" s="3">
         <v>39</v>
       </c>
-      <c r="R2" s="2">
-        <f>SUM(B2:Q2)</f>
+      <c r="S3" s="3">
+        <f>SUM(C3:R3)</f>
         <v>8675</v>
       </c>
     </row>
@@ -720,7 +756,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
